--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CF3AF4-FC05-47AF-B452-0427C349074C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19E5C8B-3254-4AC7-B925-F3D3AB2C4BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>Geometría</t>
   </si>
@@ -331,6 +331,33 @@
   </si>
   <si>
     <t>Propiedades termo-ópticas</t>
+  </si>
+  <si>
+    <t>\cite{ABS}</t>
+  </si>
+  <si>
+    <t>\cite{7075}</t>
+  </si>
+  <si>
+    <t>\cite{BeCu}</t>
+  </si>
+  <si>
+    <t>\cite{SatBasico}</t>
+  </si>
+  <si>
+    <t>\cite{Quartz} \cite{Grande} \cite{Reference1982}</t>
+  </si>
+  <si>
+    <t>\cite{ULE}</t>
+  </si>
+  <si>
+    <t>\cite{Martinez}</t>
+  </si>
+  <si>
+    <t>\cite{Han2014}</t>
+  </si>
+  <si>
+    <t>\cite{Grande} \cite{Reference1982}</t>
   </si>
 </sst>
 </file>
@@ -418,29 +445,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,13 +461,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +583,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8C8C8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -810,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,584 +863,612 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="7"/>
       <c r="G1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="G2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="3" t="s">
         <v>68</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="3">
         <v>1200</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="3">
         <v>1600</v>
       </c>
       <c r="K3" s="6">
         <v>0.2</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="N3" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="3">
         <v>2810</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="3">
         <v>960</v>
       </c>
       <c r="K4" s="6">
         <v>130</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="3">
         <v>8260</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="3">
         <v>420</v>
       </c>
       <c r="K5" s="6">
         <v>118</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="9"/>
       <c r="G6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>5300</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>1000</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="11">
         <v>55</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="9"/>
+      <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>300</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>900</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
       <c r="K8" s="6">
         <v>2</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="10"/>
+      <c r="N8" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="3">
         <v>2210</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="3">
         <v>767</v>
       </c>
       <c r="K9" s="6">
         <v>1.31</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="10"/>
+      <c r="N9" s="5" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="9"/>
       <c r="G12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="G13" s="9" t="s">
+      <c r="E13" s="9"/>
+      <c r="G13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="G14" s="10" t="s">
+      <c r="E14" s="9"/>
+      <c r="G14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="3">
         <v>0.1</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="3">
         <v>0.5</v>
       </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="N14" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="G15" s="10" t="s">
+      <c r="E15" s="9"/>
+      <c r="G15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="3">
         <v>0.84</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="3">
         <v>0.97</v>
       </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="10"/>
+      <c r="N15" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="G16" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="G16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N16" s="10"/>
+      <c r="N16" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="9"/>
       <c r="G17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>0.1</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>0.9</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="G18" s="10" t="s">
+      <c r="E18" s="9"/>
+      <c r="G18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="3">
         <v>0.61</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="3">
         <v>0.36</v>
       </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="10"/>
+      <c r="N18" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="10" t="s">
+      <c r="E19" s="9"/>
+      <c r="G19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
         <v>0.08</v>
       </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10" t="s">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="10"/>
+      <c r="N19" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="3">
         <v>0.84</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="3">
         <v>0.75</v>
       </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10" t="s">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N20" s="10"/>
+      <c r="N20" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
@@ -1419,43 +1477,28 @@
       <c r="H21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>0.85</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>0.2</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
@@ -1466,12 +1509,29 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19E5C8B-3254-4AC7-B925-F3D3AB2C4BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FEFAE-715B-49C5-94FD-1006D3B3E00E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17016" yWindow="3180" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
   <si>
     <t>Geometría</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Radiator</t>
   </si>
   <si>
-    <t>ULE_Glass</t>
-  </si>
-  <si>
     <t>Para el exterior de las cajas electrónicas</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>Espejo de segunda superficie del radiador</t>
   </si>
   <si>
-    <t>Corning ULE® 7972 Ultra Low Expansion Glass</t>
-  </si>
-  <si>
     <t>Para la lente del telescopio</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>Lente óptica</t>
   </si>
   <si>
-    <t>$\tau_s$</t>
-  </si>
-  <si>
     <t>$\tau_{IR}$</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>\cite{Quartz} \cite{Grande} \cite{Reference1982}</t>
   </si>
   <si>
-    <t>\cite{ULE}</t>
-  </si>
-  <si>
     <t>\cite{Martinez}</t>
   </si>
   <si>
@@ -358,13 +346,97 @@
   </si>
   <si>
     <t>\cite{Grande} \cite{Reference1982}</t>
+  </si>
+  <si>
+    <t>GE_Glass</t>
+  </si>
+  <si>
+    <t>quitar \cite{ULE} y añadir cita al pdf: IR-material-germanium.pdf</t>
+  </si>
+  <si>
+    <t>OPMI-GERMANIUM</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>OBC</t>
+  </si>
+  <si>
+    <t>Telescopio</t>
+  </si>
+  <si>
+    <t>Rango de temperatura [K]</t>
+  </si>
+  <si>
+    <t>Potencia media [W]</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>Condiciones de controno</t>
+  </si>
+  <si>
+    <t>Antena</t>
+  </si>
+  <si>
+    <t>Electrónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lente </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Carcasa</t>
+  </si>
+  <si>
+    <t>223 - 358</t>
+  </si>
+  <si>
+    <t>https://www.cubesatshop.com/product/helios-deployable-antenna/</t>
+  </si>
+  <si>
+    <t>243 - 333</t>
+  </si>
+  <si>
+    <t>233 - 343</t>
+  </si>
+  <si>
+    <t>https://www.cubesatshop.com/product/isis-magnetorquer-board/</t>
+  </si>
+  <si>
+    <t>cita al pdf: IR-material-germanium.pdf</t>
+  </si>
+  <si>
+    <t>248-338</t>
+  </si>
+  <si>
+    <t>&gt; 373</t>
+  </si>
+  <si>
+    <t>$\sim$ 200</t>
+  </si>
+  <si>
+    <t>$\sim$ 90</t>
+  </si>
+  <si>
+    <t>840 (ALADIN)</t>
+  </si>
+  <si>
+    <t>\cite{Han2014} \cite{AEOLUS}</t>
+  </si>
+  <si>
+    <t>https://www.cubesatshop.com/product/isis-on-board-computer/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,16 +444,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -441,11 +527,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -463,35 +576,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,83 +1001,106 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="59.6640625" customWidth="1"/>
     <col min="9" max="9" width="23.109375" customWidth="1"/>
-    <col min="10" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="60.5546875" customWidth="1"/>
-    <col min="14" max="14" width="43.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="60.5546875" customWidth="1"/>
+    <col min="13" max="13" width="43.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="26.44140625" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="P1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="18"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="13"/>
       <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="P2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="13"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3">
         <v>1200</v>
@@ -940,29 +1111,43 @@
       <c r="K3" s="6">
         <v>0.2</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="L3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" s="23">
+        <v>2</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="13"/>
       <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="3">
         <v>2810</v>
@@ -973,29 +1158,37 @@
       <c r="K4" s="6">
         <v>130</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="L4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="13"/>
       <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="3">
         <v>8260</v>
@@ -1006,31 +1199,43 @@
       <c r="K5" s="6">
         <v>118</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="13"/>
       <c r="G6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2">
         <v>5300</v>
@@ -1038,32 +1243,44 @@
       <c r="J6" s="2">
         <v>1000</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="7">
         <v>55</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="13"/>
       <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="3">
         <v>300</v>
@@ -1074,18 +1291,32 @@
       <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="13" t="s">
+      <c r="L7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1098,7 +1329,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="3">
         <v>2200</v>
@@ -1109,144 +1340,160 @@
       <c r="K8" s="6">
         <v>2</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
+      <c r="L8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2210</v>
-      </c>
-      <c r="J9" s="3">
-        <v>767</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1.31</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="G9" s="19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
+      <c r="H9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="21">
+        <v>5330</v>
+      </c>
+      <c r="J9" s="21">
+        <v>310</v>
+      </c>
+      <c r="K9" s="27">
+        <v>58.61</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="G12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="13"/>
       <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="13"/>
       <c r="G14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="I14" s="3">
         <v>0.1</v>
@@ -1257,31 +1504,28 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="L14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="13"/>
       <c r="G15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15" s="3">
         <v>0.84</v>
@@ -1292,31 +1536,28 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="L15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="13"/>
       <c r="G16" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1327,68 +1568,62 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="L16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="13"/>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="2">
-        <v>0.9</v>
+      <c r="L17" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="G18" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I18" s="3">
         <v>0.61</v>
@@ -1399,31 +1634,28 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="L18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="G19" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
@@ -1434,22 +1666,19 @@
       <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G20" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I20" s="3">
         <v>0.84</v>
@@ -1460,22 +1689,19 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I21" s="2">
         <v>0.85</v>
@@ -1486,18 +1712,41 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
+      <c r="L21" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C18:E18"/>
@@ -1509,31 +1758,12 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="T3" r:id="rId1" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>
+    <hyperlink ref="T6" r:id="rId2" xr:uid="{E45BDACC-B465-4438-959F-291A6606DD20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FEFAE-715B-49C5-94FD-1006D3B3E00E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14972FAC-C266-4D9C-9A9B-CFE590A0CE03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17016" yWindow="3180" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="153">
   <si>
     <t>Geometría</t>
   </si>
@@ -411,9 +411,6 @@
     <t>cita al pdf: IR-material-germanium.pdf</t>
   </si>
   <si>
-    <t>248-338</t>
-  </si>
-  <si>
     <t>&gt; 373</t>
   </si>
   <si>
@@ -430,6 +427,72 @@
   </si>
   <si>
     <t>https://www.cubesatshop.com/product/isis-on-board-computer/</t>
+  </si>
+  <si>
+    <t>TL_electronics</t>
+  </si>
+  <si>
+    <t>Caja con la electrónica del telescopio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User defined conductors </t>
+  </si>
+  <si>
+    <t>COM_support</t>
+  </si>
+  <si>
+    <t>RDTR2BX_1</t>
+  </si>
+  <si>
+    <t>RDTR2BX_2</t>
+  </si>
+  <si>
+    <t>Distancia [m]</t>
+  </si>
+  <si>
+    <t>Área [m$^2$]</t>
+  </si>
+  <si>
+    <t>GL [W/m]</t>
+  </si>
+  <si>
+    <t>SP12BX_1</t>
+  </si>
+  <si>
+    <t>SP22BX_2</t>
+  </si>
+  <si>
+    <t>SP22BX_1</t>
+  </si>
+  <si>
+    <t>SP12BX_2</t>
+  </si>
+  <si>
+    <t>TL2RDTR</t>
+  </si>
+  <si>
+    <t>TRAY2RDTR</t>
+  </si>
+  <si>
+    <t>Rango de temperatura [C]</t>
+  </si>
+  <si>
+    <t>(-50) - 85</t>
+  </si>
+  <si>
+    <t>&gt; 100</t>
+  </si>
+  <si>
+    <t>(-25) - 65</t>
+  </si>
+  <si>
+    <t>248 - 338</t>
+  </si>
+  <si>
+    <t>(-40) - 70</t>
+  </si>
+  <si>
+    <t>(-30) - 60</t>
   </si>
 </sst>
 </file>
@@ -467,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -553,12 +616,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -588,30 +662,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -619,22 +669,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +812,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C8C8C8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -986,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,51 +1087,64 @@
     <col min="12" max="12" width="60.5546875" customWidth="1"/>
     <col min="13" max="13" width="43.33203125" customWidth="1"/>
     <col min="16" max="16" width="12.21875" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="26.44140625" customWidth="1"/>
-    <col min="19" max="19" width="19.5546875" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="17" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="26.44140625" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" customWidth="1"/>
+    <col min="26" max="26" width="21.109375" customWidth="1"/>
+    <col min="27" max="27" width="12.77734375" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="19"/>
+      <c r="P1" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="18"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="22"/>
+      <c r="Y1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="27"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="26"/>
       <c r="G2" s="3" t="s">
         <v>61</v>
       </c>
@@ -1072,30 +1166,48 @@
       <c r="M2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="Y2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="26"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
@@ -1117,32 +1229,51 @@
       <c r="M3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="16" t="s">
         <v>107</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S3" s="23">
+      <c r="T3" s="16">
         <v>2</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="U3" s="23" t="s">
         <v>120</v>
       </c>
+      <c r="Y3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>400</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AB3" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="AC3" s="29">
+        <f>Z3*AB3/AA3</f>
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="26"/>
       <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1164,26 +1295,45 @@
       <c r="M4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="24"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="Y4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>400</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AB4" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="AC4" s="29">
+        <f t="shared" ref="AC4:AC8" si="0">Z4*AB4/AA4</f>
+        <v>4000</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="26"/>
       <c r="G5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1205,32 +1355,51 @@
       <c r="M5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="8" t="s">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="S5" s="8">
+      <c r="T5" s="8">
         <v>1.2</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="U5" s="8" t="s">
         <v>123</v>
       </c>
+      <c r="Y5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>400</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="29">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="26"/>
       <c r="G6" s="1" t="s">
         <v>68</v>
       </c>
@@ -1252,30 +1421,49 @@
       <c r="M6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="T6" s="8">
         <v>0.5</v>
       </c>
-      <c r="T6" s="26" t="s">
-        <v>131</v>
+      <c r="U6" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>130</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AB6" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="AC6" s="29">
+        <f t="shared" si="0"/>
+        <v>8.6666666666666679</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="26"/>
       <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1297,32 +1485,51 @@
       <c r="M7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="16" t="s">
         <v>109</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="9">
+        <v>-183</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="U7" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="Y7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z7" s="9">
         <v>130</v>
       </c>
+      <c r="AA7" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AB7" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="AC7" s="29">
+        <f t="shared" ref="AC7" si="1">Z7*AB7/AA7</f>
+        <v>8.6666666666666679</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1346,115 +1553,185 @@
       <c r="M8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="24"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
+      <c r="R8" s="9">
+        <v>-73</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="Y8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>130</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="AC8" s="29">
+        <f>Z8*AB8/AA8</f>
+        <v>8.6666666666666679</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="13">
         <v>5330</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="13">
         <v>310</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="15">
         <v>58.61</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="8" t="s">
-        <v>126</v>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="S9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="U9" s="8" t="s">
         <v>124</v>
       </c>
+      <c r="Y9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>130</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AB9" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="AC9" s="29">
+        <f>Z9*AB9/AA9</f>
+        <v>8.6666666666666679</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="26"/>
+      <c r="Y10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>400</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0.76</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="AC10" s="29">
+        <f>Z10*AB10/AA10</f>
+        <v>5.2631578947368425</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="26"/>
+      <c r="Y11" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>400</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="AB11" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="AC11" s="29">
+        <f>Z11*AB11/AA11</f>
+        <v>400</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="G12" s="14" t="s">
+      <c r="E12" s="26"/>
+      <c r="G12" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="26"/>
       <c r="G13" s="3" t="s">
         <v>61</v>
       </c>
@@ -1477,18 +1754,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="26"/>
       <c r="G14" s="4" t="s">
         <v>73</v>
       </c>
@@ -1511,16 +1788,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="26"/>
       <c r="G15" s="4" t="s">
         <v>77</v>
       </c>
@@ -1543,16 +1820,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="26"/>
       <c r="G16" s="4" t="s">
         <v>80</v>
       </c>
@@ -1576,15 +1853,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="26"/>
       <c r="G17" s="1" t="s">
         <v>83</v>
       </c>
@@ -1608,17 +1885,15 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="22"/>
       <c r="G18" s="4" t="s">
         <v>87</v>
       </c>
@@ -1642,15 +1917,17 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="A19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="G19" s="4" t="s">
         <v>88</v>
       </c>
@@ -1674,6 +1951,15 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="G20" s="4" t="s">
         <v>90</v>
       </c>
@@ -1721,17 +2007,19 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="A1:E1"/>
@@ -1739,29 +2027,27 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T3" r:id="rId1" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>
-    <hyperlink ref="T6" r:id="rId2" xr:uid="{E45BDACC-B465-4438-959F-291A6606DD20}"/>
+    <hyperlink ref="U3" r:id="rId1" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>
+    <hyperlink ref="U6" r:id="rId2" xr:uid="{E45BDACC-B465-4438-959F-291A6606DD20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14972FAC-C266-4D9C-9A9B-CFE590A0CE03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CAB6B7-90D2-46FD-B949-23AC0FCD7431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16812" yWindow="4008" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="154">
   <si>
     <t>Geometría</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Espejo de segunda superficie del radiador</t>
   </si>
   <si>
-    <t>Para la lente del telescopio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Materiales </t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>Conductividad [W/(m·K)]</t>
   </si>
   <si>
-    <t>Ga_As</t>
-  </si>
-  <si>
     <t>Celdas solares de Ga-As</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
     <t>Aluminio pulido</t>
   </si>
   <si>
-    <t>Para superficies metálicas o aquellas que necesiten una baja emisividad</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -285,18 +276,6 @@
     <t>Para el detector de infrarrojo</t>
   </si>
   <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Lente óptica</t>
-  </si>
-  <si>
-    <t>$\tau_{IR}$</t>
-  </si>
-  <si>
-    <t>Lente del telescopio que deja pasar la luz</t>
-  </si>
-  <si>
     <t>Kapton</t>
   </si>
   <si>
@@ -348,15 +327,6 @@
     <t>\cite{Grande} \cite{Reference1982}</t>
   </si>
   <si>
-    <t>GE_Glass</t>
-  </si>
-  <si>
-    <t>quitar \cite{ULE} y añadir cita al pdf: IR-material-germanium.pdf</t>
-  </si>
-  <si>
-    <t>OPMI-GERMANIUM</t>
-  </si>
-  <si>
     <t>COM</t>
   </si>
   <si>
@@ -384,12 +354,6 @@
     <t>Electrónica</t>
   </si>
   <si>
-    <t xml:space="preserve">Lente </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Carcasa</t>
   </si>
   <si>
@@ -408,12 +372,6 @@
     <t>https://www.cubesatshop.com/product/isis-magnetorquer-board/</t>
   </si>
   <si>
-    <t>cita al pdf: IR-material-germanium.pdf</t>
-  </si>
-  <si>
-    <t>&gt; 373</t>
-  </si>
-  <si>
     <t>$\sim$ 200</t>
   </si>
   <si>
@@ -480,9 +438,6 @@
     <t>(-50) - 85</t>
   </si>
   <si>
-    <t>&gt; 100</t>
-  </si>
-  <si>
     <t>(-25) - 65</t>
   </si>
   <si>
@@ -493,6 +448,54 @@
   </si>
   <si>
     <t>(-30) - 60</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Para el espejo del telescopio</t>
+  </si>
+  <si>
+    <t>http://www.matweb.com/search/datasheet.aspx?matguid=d2a2119a08904a0fa706e9408cddb88e&amp;ckck=1</t>
+  </si>
+  <si>
+    <t>Al_6061_T6</t>
+  </si>
+  <si>
+    <t>EN-6061-T6</t>
+  </si>
+  <si>
+    <t>Sustrato del espejo</t>
+  </si>
+  <si>
+    <t>Aluminum 6061-T6; 6061-T651 (matweb.com)</t>
+  </si>
+  <si>
+    <t>Recubrimiento dorado</t>
+  </si>
+  <si>
+    <t>Gold_coating</t>
+  </si>
+  <si>
+    <t>$\rho_{IR}$ (especular)</t>
+  </si>
+  <si>
+    <t>Oro para el espejo IR</t>
+  </si>
+  <si>
+    <t>GaAs</t>
+  </si>
+  <si>
+    <t>https://www.edmundoptics.es/f/off-axis-parabolic-mirrors-with-alignment-through-holes/39501/ + \cite{Martinez}</t>
+  </si>
+  <si>
+    <t>DETECTOR2TL_cilinder</t>
+  </si>
+  <si>
+    <t>Para superficies de aluminio</t>
+  </si>
+  <si>
+    <t>Espejo del telescopio que refleja la luz y para la MLI de la estrucutra que protege el telescopio</t>
   </si>
 </sst>
 </file>
@@ -516,18 +519,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -632,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -650,63 +647,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,6 +676,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,74 +732,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1069,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,676 +1040,703 @@
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="G1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="19"/>
-      <c r="P1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="22"/>
+        <v>59</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="P1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="24"/>
       <c r="Y1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="21"/>
       <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>139</v>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="21"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="13">
         <v>1200</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="13">
         <v>1600</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="11">
         <v>0.2</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="T3" s="16">
+      <c r="T3" s="25">
         <v>2</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="8">
         <v>400</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="8">
         <v>0.1</v>
       </c>
-      <c r="AB3" s="29">
+      <c r="AB3" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3" s="16">
         <f>Z3*AB3/AA3</f>
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="21"/>
       <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="13">
         <v>2810</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="13">
         <v>960</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="11">
         <v>130</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="S4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="Y4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="Y4" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="8">
         <v>400</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="8">
         <v>0.01</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="16">
         <v>0.1</v>
       </c>
-      <c r="AC4" s="29">
-        <f t="shared" ref="AC4:AC8" si="0">Z4*AB4/AA4</f>
+      <c r="AC4" s="16">
+        <f t="shared" ref="AC4:AC6" si="0">Z4*AB4/AA4</f>
         <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="G5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="3">
-        <v>8260</v>
-      </c>
-      <c r="J5" s="3">
-        <v>420</v>
-      </c>
-      <c r="K5" s="6">
-        <v>118</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>98</v>
+      <c r="E5" s="21"/>
+      <c r="G5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2700</v>
+      </c>
+      <c r="J5" s="2">
+        <v>896</v>
+      </c>
+      <c r="K5" s="2">
+        <v>167</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="S5" s="8" t="s">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="T5" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="8">
         <v>400</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="8">
         <v>0.01</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="8">
         <v>0.1</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="16">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5300</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="7">
-        <v>55</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>99</v>
+      <c r="E6" s="21"/>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="13">
+        <v>8260</v>
+      </c>
+      <c r="J6" s="13">
+        <v>420</v>
+      </c>
+      <c r="K6" s="11">
+        <v>118</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="T6" s="8">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T6" s="7">
         <v>0.5</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z6" s="8">
         <v>130</v>
       </c>
-      <c r="Y6" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>130</v>
-      </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="8">
         <v>0.15</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6" s="16">
         <f t="shared" si="0"/>
         <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="G7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="E7" s="21"/>
+      <c r="G7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5300</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="12">
         <v>55</v>
       </c>
-      <c r="I7" s="3">
-        <v>300</v>
-      </c>
-      <c r="J7" s="3">
-        <v>900</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="P7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="9">
+      <c r="Q7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="8">
         <v>-183</v>
       </c>
-      <c r="S7" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="U7" s="16" t="s">
+      <c r="S7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="8">
         <v>130</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="8">
         <v>0.15</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AB7" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC7" s="29">
+      <c r="AC7" s="16">
         <f t="shared" ref="AC7" si="1">Z7*AB7/AA7</f>
         <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>700</v>
-      </c>
-      <c r="K8" s="6">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" s="9">
+      <c r="G8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="15">
+        <v>19320</v>
+      </c>
+      <c r="J8" s="15">
+        <v>128</v>
+      </c>
+      <c r="K8" s="32">
+        <v>301</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="8">
         <v>-73</v>
       </c>
-      <c r="S8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="Y8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z8" s="9">
+      <c r="S8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="Y8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z8" s="8">
         <v>130</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="8">
         <v>0.15</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC8" s="29">
+      <c r="AC8" s="16">
         <f>Z8*AB8/AA8</f>
         <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>106</v>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="I9" s="13">
-        <v>5330</v>
+        <v>300</v>
       </c>
       <c r="J9" s="13">
-        <v>310</v>
-      </c>
-      <c r="K9" s="15">
-        <v>58.61</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z9" s="9">
+        <v>900</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="Y9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z9" s="8">
         <v>130</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="8">
         <v>0.15</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="16">
         <f>Z9*AB9/AA9</f>
         <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="Y10" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z10" s="28">
+      <c r="E10" s="21"/>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2200</v>
+      </c>
+      <c r="J10" s="13">
+        <v>700</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z10" s="15">
         <v>400</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="8">
         <v>0.76</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AB10" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC10" s="29">
+      <c r="AC10" s="16">
         <f>Z10*AB10/AA10</f>
         <v>5.2631578947368425</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="Y11" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z11" s="28">
+      <c r="E11" s="21"/>
+      <c r="Y11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z11" s="15">
         <v>400</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="13">
         <v>0.01</v>
       </c>
-      <c r="AB11" s="29">
+      <c r="AB11" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC11" s="29">
+      <c r="AC11" s="16">
         <f>Z11*AB11/AA11</f>
         <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="21"/>
       <c r="G12" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="Y12" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>130</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AB12" s="34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC12" s="34">
+        <f>Z12*AB12/AA12</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="21"/>
       <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="21"/>
       <c r="G14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="I14" s="3">
         <v>0.1</v>
@@ -1782,27 +1748,27 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="21"/>
       <c r="G15" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I15" s="3">
         <v>0.84</v>
@@ -1814,27 +1780,27 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="21"/>
       <c r="G16" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1846,59 +1812,59 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="21"/>
       <c r="G17" s="1" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J17" s="2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>102</v>
+        <v>153</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="22"/>
+        <v>117</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="G18" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I18" s="3">
         <v>0.61</v>
@@ -1913,26 +1879,26 @@
         <v>56</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="G19" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
@@ -1947,24 +1913,24 @@
         <v>58</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="G20" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I20" s="3">
         <v>0.84</v>
@@ -1976,18 +1942,18 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I21" s="2">
         <v>0.85</v>
@@ -2002,20 +1968,16 @@
         <v>54</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B14:B18"/>
@@ -2032,6 +1994,15 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="T7:T8"/>
@@ -2039,17 +2010,15 @@
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="U3:U4"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U3" r:id="rId1" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>
     <hyperlink ref="U6" r:id="rId2" xr:uid="{E45BDACC-B465-4438-959F-291A6606DD20}"/>
+    <hyperlink ref="M8" r:id="rId3" xr:uid="{EA9EDFC4-F8CA-4D25-81D8-0722CEC3E08B}"/>
+    <hyperlink ref="M5" r:id="rId4" display="http://www.matweb.com/search/DataSheet.aspx?MatGUID=b8d536e0b9b54bd7b69e4124d8f1d20a&amp;ckck=1" xr:uid="{88352AE0-60BD-40C1-80F4-34894B81EA41}"/>
+    <hyperlink ref="M17" r:id="rId5" xr:uid="{39AFD78C-DE6C-423C-A032-1C20451C5059}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CAB6B7-90D2-46FD-B949-23AC0FCD7431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528A9B4-AB1D-44B5-8913-3E4E2CA8E90C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16812" yWindow="4008" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
   <si>
     <t>Geometría</t>
   </si>
@@ -399,12 +399,6 @@
     <t>COM_support</t>
   </si>
   <si>
-    <t>RDTR2BX_1</t>
-  </si>
-  <si>
-    <t>RDTR2BX_2</t>
-  </si>
-  <si>
     <t>Distancia [m]</t>
   </si>
   <si>
@@ -496,6 +490,9 @@
   </si>
   <si>
     <t>Espejo del telescopio que refleja la luz y para la MLI de la estrucutra que protege el telescopio</t>
+  </si>
+  <si>
+    <t>TL2BX</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -613,23 +610,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -675,40 +661,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -722,9 +675,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1008,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,60 +1017,60 @@
     <col min="19" max="19" width="26.44140625" customWidth="1"/>
     <col min="20" max="20" width="19.5546875" customWidth="1"/>
     <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="13.21875" customWidth="1"/>
-    <col min="26" max="26" width="21.109375" customWidth="1"/>
+    <col min="25" max="25" width="21.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.5546875" customWidth="1"/>
     <col min="27" max="27" width="12.77734375" customWidth="1"/>
     <col min="28" max="28" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="26"/>
+      <c r="G1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="P1" s="23" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="26"/>
+      <c r="P1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="24"/>
-      <c r="Y1" s="18" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="29"/>
+      <c r="Y1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="26"/>
       <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="31"/>
       <c r="G2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1105,12 +1092,12 @@
       <c r="M2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="20"/>
+      <c r="Q2" s="26"/>
       <c r="R2" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>100</v>
@@ -1121,32 +1108,32 @@
       <c r="U2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="31"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
@@ -1168,31 +1155,31 @@
       <c r="M3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="23" t="s">
         <v>97</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>104</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="23">
         <v>2</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="17">
         <v>400</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="17">
         <v>0.1</v>
       </c>
       <c r="AB3" s="16">
@@ -1204,15 +1191,15 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="31"/>
       <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1234,50 +1221,50 @@
       <c r="M4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="26"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="7" t="s">
         <v>105</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="Y4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>400</v>
-      </c>
-      <c r="AA4" s="8">
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="Y4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>130</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="AB4" s="16">
         <v>0.01</v>
       </c>
-      <c r="AB4" s="16">
-        <v>0.1</v>
-      </c>
       <c r="AC4" s="16">
-        <f t="shared" ref="AC4:AC6" si="0">Z4*AB4/AA4</f>
-        <v>4000</v>
+        <f>Z4*AB4/AA4</f>
+        <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="31"/>
       <c r="G5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2">
         <v>2700</v>
@@ -1289,17 +1276,17 @@
         <v>167</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="P5" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="26"/>
       <c r="R5" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>110</v>
@@ -1310,35 +1297,35 @@
       <c r="U5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Y5" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>400</v>
-      </c>
-      <c r="AA5" s="8">
+      <c r="Y5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>130</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="AB5" s="16">
         <v>0.01</v>
       </c>
-      <c r="AB5" s="8">
-        <v>0.1</v>
-      </c>
       <c r="AC5" s="16">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <f t="shared" ref="AC5" si="0">Z5*AB5/AA5</f>
+        <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="31"/>
       <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
@@ -1360,15 +1347,15 @@
       <c r="M6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="26"/>
       <c r="R6" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T6" s="7">
         <v>0.5</v>
@@ -1376,35 +1363,35 @@
       <c r="U6" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Y6" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="17">
         <v>130</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="17">
         <v>0.15</v>
       </c>
       <c r="AB6" s="16">
         <v>0.01</v>
       </c>
       <c r="AC6" s="16">
-        <f t="shared" si="0"/>
+        <f>Z6*AB6/AA6</f>
         <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="31"/>
       <c r="G7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>67</v>
@@ -1424,7 +1411,7 @@
       <c r="M7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="25" t="s">
+      <c r="P7" s="23" t="s">
         <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
@@ -1436,33 +1423,33 @@
       <c r="S7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="U7" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z7" s="8">
+      <c r="Y7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" s="17">
         <v>130</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="17">
         <v>0.15</v>
       </c>
       <c r="AB7" s="16">
         <v>0.01</v>
       </c>
       <c r="AC7" s="16">
-        <f t="shared" ref="AC7" si="1">Z7*AB7/AA7</f>
+        <f>Z7*AB7/AA7</f>
         <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1471,11 +1458,11 @@
       <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>148</v>
+      <c r="G8" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="I8" s="15">
         <v>19320</v>
@@ -1483,16 +1470,16 @@
       <c r="J8" s="15">
         <v>128</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="21">
         <v>301</v>
       </c>
-      <c r="L8" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="P8" s="26"/>
+      <c r="L8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="24"/>
       <c r="Q8" s="7" t="s">
         <v>106</v>
       </c>
@@ -1502,29 +1489,29 @@
       <c r="S8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="Y8" s="8" t="s">
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="Y8" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="Z8" s="8">
-        <v>130</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0.15</v>
+      <c r="Z8" s="15">
+        <v>400</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>0.76</v>
       </c>
       <c r="AB8" s="16">
         <v>0.01</v>
       </c>
       <c r="AC8" s="16">
         <f>Z8*AB8/AA8</f>
-        <v>8.6666666666666679</v>
+        <v>5.2631578947368425</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1552,41 +1539,41 @@
       <c r="M9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="20"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
       <c r="R9" s="8"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
-      <c r="Y9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>130</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0.15</v>
+      <c r="Y9" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>400</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>0.01</v>
       </c>
       <c r="AB9" s="16">
         <v>0.01</v>
       </c>
       <c r="AC9" s="16">
         <f>Z9*AB9/AA9</f>
-        <v>8.6666666666666679</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="31"/>
       <c r="G10" s="4" t="s">
         <v>48</v>
       </c>
@@ -1608,96 +1595,80 @@
       <c r="M10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Y10" s="8" t="s">
+      <c r="Y10" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z10" s="15">
         <v>130</v>
       </c>
-      <c r="Z10" s="15">
-        <v>400</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="AC10" s="16">
+      <c r="AA10" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="AB10" s="34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC10" s="34">
         <f>Z10*AB10/AA10</f>
-        <v>5.2631578947368425</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="31"/>
       <c r="Y11" s="15" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="Z11" s="15">
-        <v>400</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="AC11" s="16">
+        <v>130</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AB11" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="AC11" s="34">
         <f>Z11*AB11/AA11</f>
-        <v>400</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="31"/>
+      <c r="G12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="Y12" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>130</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AB12" s="34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC12" s="34">
-        <f>Z12*AB12/AA12</f>
-        <v>13</v>
-      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="31"/>
       <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
@@ -1711,7 +1682,7 @@
         <v>70</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>61</v>
@@ -1721,17 +1692,17 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="31"/>
       <c r="G14" s="4" t="s">
         <v>71</v>
       </c>
@@ -1748,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="31"/>
       <c r="G15" s="4" t="s">
         <v>74</v>
       </c>
@@ -1787,15 +1758,15 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="31"/>
       <c r="G16" s="4" t="s">
         <v>77</v>
       </c>
@@ -1819,20 +1790,20 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="31"/>
       <c r="G17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2">
         <v>0.02</v>
@@ -1844,22 +1815,22 @@
         <v>0.98</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="29"/>
       <c r="G18" s="4" t="s">
         <v>80</v>
       </c>
@@ -1883,7 +1854,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1917,7 +1888,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1973,11 +1944,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="U3:U4"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B14:B18"/>
@@ -1994,22 +1976,11 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U3" r:id="rId1" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>

--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528A9B4-AB1D-44B5-8913-3E4E2CA8E90C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB88348B-4B42-4496-8B1E-027F45759120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17064" yWindow="3324" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="152">
   <si>
     <t>Geometría</t>
   </si>
@@ -378,9 +378,6 @@
     <t>$\sim$ 90</t>
   </si>
   <si>
-    <t>840 (ALADIN)</t>
-  </si>
-  <si>
     <t>\cite{Han2014} \cite{AEOLUS}</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t xml:space="preserve">User defined conductors </t>
   </si>
   <si>
-    <t>COM_support</t>
-  </si>
-  <si>
     <t>Distancia [m]</t>
   </si>
   <si>
@@ -408,24 +402,6 @@
     <t>GL [W/m]</t>
   </si>
   <si>
-    <t>SP12BX_1</t>
-  </si>
-  <si>
-    <t>SP22BX_2</t>
-  </si>
-  <si>
-    <t>SP22BX_1</t>
-  </si>
-  <si>
-    <t>SP12BX_2</t>
-  </si>
-  <si>
-    <t>TL2RDTR</t>
-  </si>
-  <si>
-    <t>TRAY2RDTR</t>
-  </si>
-  <si>
     <t>Rango de temperatura [C]</t>
   </si>
   <si>
@@ -483,16 +459,37 @@
     <t>https://www.edmundoptics.es/f/off-axis-parabolic-mirrors-with-alignment-through-holes/39501/ + \cite{Martinez}</t>
   </si>
   <si>
-    <t>DETECTOR2TL_cilinder</t>
-  </si>
-  <si>
     <t>Para superficies de aluminio</t>
   </si>
   <si>
     <t>Espejo del telescopio que refleja la luz y para la MLI de la estrucutra que protege el telescopio</t>
   </si>
   <si>
-    <t>TL2BX</t>
+    <t xml:space="preserve">De </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>TL_cone</t>
+  </si>
+  <si>
+    <t>TL_mirror_2</t>
+  </si>
+  <si>
+    <t>Área total [m^2]</t>
+  </si>
+  <si>
+    <t>Potencia por unidad de area</t>
+  </si>
+  <si>
+    <t>Potencia</t>
   </si>
 </sst>
 </file>
@@ -524,7 +521,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -610,12 +607,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -661,9 +669,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -675,43 +680,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,6 +743,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -993,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,60 +1109,62 @@
     <col min="19" max="19" width="26.44140625" customWidth="1"/>
     <col min="20" max="20" width="19.5546875" customWidth="1"/>
     <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" customWidth="1"/>
-    <col min="26" max="26" width="21.5546875" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" customWidth="1"/>
-    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" customWidth="1"/>
+    <col min="28" max="29" width="17.109375" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="26"/>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
       <c r="M1" s="26"/>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="29"/>
-      <c r="Y1" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="14"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="32"/>
+      <c r="Y1" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="14"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="27"/>
       <c r="G2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1092,12 +1186,12 @@
       <c r="M2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>100</v>
@@ -1108,32 +1202,35 @@
       <c r="U2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC2" s="17" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="27"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
@@ -1155,51 +1252,54 @@
       <c r="M3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="28" t="s">
         <v>97</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>104</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="23">
-        <v>2</v>
+      <c r="T3" s="28">
+        <v>10</v>
       </c>
       <c r="U3" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z3" s="17">
+      <c r="Y3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="22">
         <v>400</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AB3" s="22">
         <v>0.1</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AC3" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC3" s="16">
-        <f>Z3*AB3/AA3</f>
+      <c r="AD3" s="16">
+        <f>AA3*AC3/AB3</f>
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="27"/>
       <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1221,50 +1321,53 @@
       <c r="M4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P4" s="24"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="7" t="s">
         <v>105</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="Y4" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z4" s="17">
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="Y4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA4" s="15">
         <v>130</v>
       </c>
-      <c r="AA4" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="AC4" s="16">
-        <f>Z4*AB4/AA4</f>
-        <v>8.6666666666666679</v>
+      <c r="AB4" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD4" s="16">
+        <f t="shared" ref="AD4:AD8" si="0">AA4*AC4/AB4</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
       <c r="G5" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I5" s="2">
         <v>2700</v>
@@ -1276,56 +1379,59 @@
         <v>167</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="26"/>
       <c r="R5" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>110</v>
       </c>
       <c r="T5" s="7">
-        <v>1.2</v>
+        <v>100</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z5" s="17">
+      <c r="Y5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA5" s="15">
         <v>130</v>
       </c>
-      <c r="AA5" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="AC5" s="16">
-        <f t="shared" ref="AC5" si="0">Z5*AB5/AA5</f>
-        <v>8.6666666666666679</v>
+      <c r="AB5" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="AC5" s="35">
+        <v>6.2831999999999997E-5</v>
+      </c>
+      <c r="AD5" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3613599999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="27"/>
       <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
@@ -1347,51 +1453,54 @@
       <c r="M6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="24" t="s">
         <v>98</v>
       </c>
       <c r="Q6" s="26"/>
       <c r="R6" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="T6" s="7">
-        <v>0.5</v>
+        <v>400</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z6" s="17">
+        <v>115</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="22">
         <v>130</v>
       </c>
-      <c r="AA6" s="17">
+      <c r="AB6" s="22">
         <v>0.15</v>
       </c>
-      <c r="AB6" s="16">
-        <v>0.01</v>
-      </c>
       <c r="AC6" s="16">
-        <f>Z6*AB6/AA6</f>
-        <v>8.6666666666666679</v>
+        <v>5.9690300000000002E-3</v>
+      </c>
+      <c r="AD6" s="16">
+        <f t="shared" si="0"/>
+        <v>5.1731593333333334</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="27"/>
       <c r="G7" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>67</v>
@@ -1411,7 +1520,7 @@
       <c r="M7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="28" t="s">
         <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
@@ -1423,33 +1532,36 @@
       <c r="S7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="28">
+        <v>830</v>
+      </c>
+      <c r="U7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="U7" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z7" s="17">
+      <c r="Y7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="15">
         <v>130</v>
       </c>
-      <c r="AA7" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="AC7" s="16">
-        <f>Z7*AB7/AA7</f>
-        <v>8.6666666666666679</v>
+      <c r="AB7" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="AC7" s="35">
+        <v>3.14159E-4</v>
+      </c>
+      <c r="AD7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.40840670000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1458,11 +1570,11 @@
       <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>146</v>
+      <c r="G8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="I8" s="15">
         <v>19320</v>
@@ -1470,16 +1582,16 @@
       <c r="J8" s="15">
         <v>128</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>301</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" s="24"/>
+      <c r="L8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="29"/>
       <c r="Q8" s="7" t="s">
         <v>106</v>
       </c>
@@ -1489,29 +1601,32 @@
       <c r="S8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="Y8" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z8" s="15">
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="Y8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="15">
         <v>400</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AB8" s="22">
         <v>0.76</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AC8" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC8" s="16">
-        <f>Z8*AB8/AA8</f>
+      <c r="AD8" s="16">
+        <f t="shared" si="0"/>
         <v>5.2631578947368425</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="31"/>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1539,41 +1654,35 @@
       <c r="M9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="25"/>
+      <c r="P9" s="24"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="8"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="7">
+        <f>SUM(T3:T8)</f>
+        <v>1340</v>
+      </c>
       <c r="U9" s="7"/>
-      <c r="Y9" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z9" s="15">
-        <v>400</v>
-      </c>
-      <c r="AA9" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="AC9" s="16">
-        <f>Z9*AB9/AA9</f>
-        <v>400</v>
-      </c>
+      <c r="Y9" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="38"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="27"/>
       <c r="G10" s="4" t="s">
         <v>48</v>
       </c>
@@ -1595,80 +1704,77 @@
       <c r="M10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Y10" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>130</v>
-      </c>
-      <c r="AA10" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="AB10" s="34">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC10" s="34">
-        <f>Z10*AB10/AA10</f>
-        <v>13</v>
-      </c>
+      <c r="AD10" s="38"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="Y11" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>130</v>
-      </c>
-      <c r="AA11" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="AB11" s="35">
-        <v>0.04</v>
-      </c>
-      <c r="AC11" s="34">
-        <f>Z11*AB11/AA11</f>
-        <v>52</v>
-      </c>
+      <c r="E11" s="27"/>
+      <c r="AA11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD11" s="38"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="G12" s="25" t="s">
+      <c r="E12" s="27"/>
+      <c r="G12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="26"/>
+      <c r="Y12">
+        <v>2145.2800000000002</v>
+      </c>
+      <c r="Z12">
+        <v>4.8</v>
+      </c>
+      <c r="AA12" s="2">
+        <f>Y12/Z12</f>
+        <v>446.93333333333339</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="2">
+        <f xml:space="preserve"> AA12*AB12</f>
+        <v>1340.8000000000002</v>
+      </c>
+      <c r="AD12" s="38"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="27"/>
       <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
@@ -1682,7 +1788,7 @@
         <v>70</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>61</v>
@@ -1690,19 +1796,25 @@
       <c r="M13" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="38"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="27"/>
       <c r="G14" s="4" t="s">
         <v>71</v>
       </c>
@@ -1719,22 +1831,28 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="38"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="27"/>
       <c r="G15" s="4" t="s">
         <v>74</v>
       </c>
@@ -1756,17 +1874,23 @@
       <c r="M15" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="38"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="27"/>
       <c r="G16" s="4" t="s">
         <v>77</v>
       </c>
@@ -1788,22 +1912,28 @@
       <c r="M16" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="27"/>
       <c r="G17" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I17" s="2">
         <v>0.02</v>
@@ -1815,22 +1945,28 @@
         <v>0.98</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>148</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="40"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="32"/>
       <c r="G18" s="4" t="s">
         <v>80</v>
       </c>
@@ -1852,9 +1988,15 @@
       <c r="M18" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="40"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1886,9 +2028,15 @@
       <c r="M19" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="40"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +2067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
         <v>86</v>
       </c>
@@ -1944,22 +2092,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B14:B18"/>
@@ -1976,11 +2114,21 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U3" r:id="rId1" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>

--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB88348B-4B42-4496-8B1E-027F45759120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3DD554-71E1-46E6-BD19-15525D3E138F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17064" yWindow="3324" windowWidth="11784" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="163">
   <si>
     <t>Geometría</t>
   </si>
@@ -90,18 +90,12 @@
     <t>Telescope</t>
   </si>
   <si>
-    <t>TL_cilindro</t>
-  </si>
-  <si>
     <t>TL_detector</t>
   </si>
   <si>
     <t>TL_mirror</t>
   </si>
   <si>
-    <t>TL_tapa</t>
-  </si>
-  <si>
     <t>SOLAR_PANELS</t>
   </si>
   <si>
@@ -150,24 +144,9 @@
     <t>Manta térmica que recubre TLC_D_estruct</t>
   </si>
   <si>
-    <t>Estrucutra cilindrica que aloja el detector y la lente del telescopio</t>
-  </si>
-  <si>
     <t>Detector infrarrojo</t>
   </si>
   <si>
-    <t>Lente del microscopio</t>
-  </si>
-  <si>
-    <t>Tapa posterior  del cilindro que se conecta con BX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panel solar en x+ (véase Figura \ref{fig:} para orientación) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panel solar en x- (véase Figura \ref{fig:} para orientación) </t>
-  </si>
-  <si>
     <t>ABS_plastic</t>
   </si>
   <si>
@@ -231,12 +210,6 @@
     <t>Densidad [kg/m$^3$]</t>
   </si>
   <si>
-    <t>Calor específico [J/(kg·K)]</t>
-  </si>
-  <si>
-    <t>Conductividad [W/(m·K)]</t>
-  </si>
-  <si>
     <t>Celdas solares de Ga-As</t>
   </si>
   <si>
@@ -336,9 +309,6 @@
     <t>Telescopio</t>
   </si>
   <si>
-    <t>Rango de temperatura [K]</t>
-  </si>
-  <si>
     <t>Potencia media [W]</t>
   </si>
   <si>
@@ -354,36 +324,6 @@
     <t>Electrónica</t>
   </si>
   <si>
-    <t>Carcasa</t>
-  </si>
-  <si>
-    <t>223 - 358</t>
-  </si>
-  <si>
-    <t>https://www.cubesatshop.com/product/helios-deployable-antenna/</t>
-  </si>
-  <si>
-    <t>243 - 333</t>
-  </si>
-  <si>
-    <t>233 - 343</t>
-  </si>
-  <si>
-    <t>https://www.cubesatshop.com/product/isis-magnetorquer-board/</t>
-  </si>
-  <si>
-    <t>$\sim$ 200</t>
-  </si>
-  <si>
-    <t>$\sim$ 90</t>
-  </si>
-  <si>
-    <t>\cite{Han2014} \cite{AEOLUS}</t>
-  </si>
-  <si>
-    <t>https://www.cubesatshop.com/product/isis-on-board-computer/</t>
-  </si>
-  <si>
     <t>TL_electronics</t>
   </si>
   <si>
@@ -405,30 +345,12 @@
     <t>Rango de temperatura [C]</t>
   </si>
   <si>
-    <t>(-50) - 85</t>
-  </si>
-  <si>
-    <t>(-25) - 65</t>
-  </si>
-  <si>
-    <t>248 - 338</t>
-  </si>
-  <si>
-    <t>(-40) - 70</t>
-  </si>
-  <si>
-    <t>(-30) - 60</t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
     <t>Para el espejo del telescopio</t>
   </si>
   <si>
-    <t>http://www.matweb.com/search/datasheet.aspx?matguid=d2a2119a08904a0fa706e9408cddb88e&amp;ckck=1</t>
-  </si>
-  <si>
     <t>Al_6061_T6</t>
   </si>
   <si>
@@ -438,9 +360,6 @@
     <t>Sustrato del espejo</t>
   </si>
   <si>
-    <t>Aluminum 6061-T6; 6061-T651 (matweb.com)</t>
-  </si>
-  <si>
     <t>Recubrimiento dorado</t>
   </si>
   <si>
@@ -456,15 +375,9 @@
     <t>GaAs</t>
   </si>
   <si>
-    <t>https://www.edmundoptics.es/f/off-axis-parabolic-mirrors-with-alignment-through-holes/39501/ + \cite{Martinez}</t>
-  </si>
-  <si>
     <t>Para superficies de aluminio</t>
   </si>
   <si>
-    <t>Espejo del telescopio que refleja la luz y para la MLI de la estrucutra que protege el telescopio</t>
-  </si>
-  <si>
     <t xml:space="preserve">De </t>
   </si>
   <si>
@@ -489,7 +402,127 @@
     <t>Potencia por unidad de area</t>
   </si>
   <si>
-    <t>Potencia</t>
+    <t>Tubos de aluminio que soportan los panles solares</t>
+  </si>
+  <si>
+    <t>Barras que unen el cono del telescopio a la caja central</t>
+  </si>
+  <si>
+    <t>Guía de la antena de cobre</t>
+  </si>
+  <si>
+    <t>Straps de cobre que unen el detector al radiador para enfriarlo</t>
+  </si>
+  <si>
+    <t>Tubos de aluminio que soportan el segundo espejo del telescopio, $\phi_{ext}$ 20 mm,  $\phi_{int}$ 10 mm</t>
+  </si>
+  <si>
+    <t>Tubo cuadrado de 30x30 mm</t>
+  </si>
+  <si>
+    <t>Soporte de aluminio entre el módulo del detector y el cono</t>
+  </si>
+  <si>
+    <t>Tubos huecos con $\phi_{ext}$ 20 mm,  $\phi_{int}$ 10 mm</t>
+  </si>
+  <si>
+    <t>Tubos huecos con $\phi_{ext}$ 40 mm,  $\phi_{int}$ 25 mm</t>
+  </si>
+  <si>
+    <t>Conductividad [W/(m$\cdot$K)]</t>
+  </si>
+  <si>
+    <t>Calor específico [J/(kg$\cdot$K)]</t>
+  </si>
+  <si>
+    <t>Seis straps con sección cuadrada 25x12</t>
+  </si>
+  <si>
+    <t>Soporte de ABS del radiador sobre el cilindro que cubre el telescopio</t>
+  </si>
+  <si>
+    <t>Estrucutra cónica que aloja el juego de espejos del telescopio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel solar en x+ (véase Figura \ref{fig:Geometria} para orientación) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel solar en x- (véase Figura \ref{fig:Geometria} para orientación) </t>
+  </si>
+  <si>
+    <t>TL_mirror2</t>
+  </si>
+  <si>
+    <t>Primer espejo del telescopio</t>
+  </si>
+  <si>
+    <t>Segundo espejo del telescopio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \cite{Martinez}</t>
+  </si>
+  <si>
+    <t>Potencia consumida</t>
+  </si>
+  <si>
+    <t>Potencia producida</t>
+  </si>
+  <si>
+    <t>de -55 a 125°C</t>
+  </si>
+  <si>
+    <t>menor a -40</t>
+  </si>
+  <si>
+    <t>de -25 a - 65</t>
+  </si>
+  <si>
+    <t>de -50 a 85</t>
+  </si>
+  <si>
+    <t>de -30 a  60</t>
+  </si>
+  <si>
+    <t>de -40 a 70</t>
+  </si>
+  <si>
+    <t>\cite{Antenna}</t>
+  </si>
+  <si>
+    <t>\cite{ADCS}</t>
+  </si>
+  <si>
+    <t>\cite{Benz2013}</t>
+  </si>
+  <si>
+    <t>\cite{OBC}</t>
+  </si>
+  <si>
+    <t>\cite{SP}</t>
+  </si>
+  <si>
+    <t>\cite{GOLD} \cite{Mirror}</t>
+  </si>
+  <si>
+    <t>\cite{6061} \cite{Mirror}</t>
+  </si>
+  <si>
+    <t>véase Tabla \ref{tab:K_T}</t>
+  </si>
+  <si>
+    <t>Gold_mirror</t>
+  </si>
+  <si>
+    <t>Para la MLI de la estrucutra que protege el telescopio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espejo del telescopio que refleja la luz </t>
+  </si>
+  <si>
+    <t>Conductancia de contacto [W/(m$^2\cdot$K)]</t>
+  </si>
+  <si>
+    <t>Paneles solares</t>
   </si>
 </sst>
 </file>
@@ -623,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -666,9 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -683,59 +713,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -830,7 +895,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C8C8C8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1085,157 +1150,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="46.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44" customWidth="1"/>
     <col min="9" max="9" width="23.109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="60.5546875" customWidth="1"/>
+    <col min="12" max="12" width="54.109375" customWidth="1"/>
     <col min="13" max="13" width="43.33203125" customWidth="1"/>
     <col min="16" max="16" width="12.21875" customWidth="1"/>
-    <col min="17" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="26.44140625" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.5546875" customWidth="1"/>
+    <col min="20" max="20" width="31.5546875" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="57.44140625" customWidth="1"/>
     <col min="27" max="27" width="20.5546875" customWidth="1"/>
-    <col min="28" max="29" width="17.109375" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" customWidth="1"/>
+    <col min="28" max="28" width="17.109375" customWidth="1"/>
+    <col min="29" max="29" width="16.44140625" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" customWidth="1"/>
+    <col min="31" max="31" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="G1" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="P1" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="32"/>
-      <c r="Y1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="14"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="G1" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="P1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="34"/>
+      <c r="X1" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="14"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="27"/>
+      <c r="D2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="35"/>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="AA2" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="AD2" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC2" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD2" s="22" t="s">
-        <v>121</v>
-      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="27"/>
+      <c r="D3" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="35"/>
       <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="13">
         <v>1200</v>
@@ -1247,64 +1319,67 @@
         <v>0.2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" s="28">
+        <v>147</v>
+      </c>
+      <c r="S3" s="30">
         <v>10</v>
       </c>
-      <c r="U3" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="T3" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="X3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Y3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="Z3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="30">
         <v>400</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="30">
         <v>0.1</v>
       </c>
-      <c r="AC3" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="AD3" s="16">
-        <f>AA3*AC3/AB3</f>
-        <v>40</v>
+      <c r="AC3" s="38">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="AD3" s="45">
+        <v>1000</v>
+      </c>
+      <c r="AE3" s="38">
+        <f>(AB3/(AC3*AA3)+2/(AD3*AC3))^-1</f>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="27"/>
+      <c r="D4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="35"/>
       <c r="G4" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I4" s="13">
         <v>2810</v>
@@ -1316,58 +1391,46 @@
         <v>130</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="P4" s="31"/>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="Y4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>130</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD4" s="16">
-        <f t="shared" ref="AD4:AD8" si="0">AA4*AC4/AB4</f>
-        <v>13</v>
-      </c>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="39"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="27"/>
+      <c r="D5" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="35"/>
       <c r="G5" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="I5" s="2">
         <v>2700</v>
@@ -1379,64 +1442,67 @@
         <v>167</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P5" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="29"/>
       <c r="R5" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="T5" s="7">
+        <v>149</v>
+      </c>
+      <c r="S5" s="7">
         <v>100</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA5" s="15">
+      <c r="T5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA5" s="41">
         <v>130</v>
       </c>
-      <c r="AB5" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="AC5" s="35">
-        <v>6.2831999999999997E-5</v>
-      </c>
-      <c r="AD5" s="16">
-        <f t="shared" si="0"/>
-        <v>1.3613599999999998E-2</v>
+      <c r="AB5" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="AC5" s="43">
+        <v>9.4247799999999996E-4</v>
+      </c>
+      <c r="AD5" s="47">
+        <v>300</v>
+      </c>
+      <c r="AE5" s="38">
+        <f>(AB5/(AC5*AA5)+2/(AD5*AC5))^-1</f>
+        <v>7.5786890721649472E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="27"/>
+      <c r="D6" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="35"/>
       <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I6" s="13">
         <v>8260</v>
@@ -1448,62 +1514,50 @@
         <v>118</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="29"/>
       <c r="R6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="T6" s="7">
+        <v>146</v>
+      </c>
+      <c r="S6" s="7">
         <v>400</v>
       </c>
-      <c r="U6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="22">
-        <v>130</v>
-      </c>
-      <c r="AB6" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>5.9690300000000002E-3</v>
-      </c>
-      <c r="AD6" s="16">
-        <f t="shared" si="0"/>
-        <v>5.1731593333333334</v>
-      </c>
+      <c r="T6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="39"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="27"/>
+      <c r="D7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="G7" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2">
         <v>5300</v>
@@ -1515,66 +1569,69 @@
         <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="8">
-        <v>-183</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7" s="28">
+      <c r="R7" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" s="30">
         <v>830</v>
       </c>
-      <c r="U7" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="15">
+      <c r="T7" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="X7" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA7" s="41">
         <v>130</v>
       </c>
-      <c r="AB7" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="AC7" s="35">
-        <v>3.14159E-4</v>
-      </c>
-      <c r="AD7" s="16">
-        <f t="shared" si="0"/>
-        <v>0.40840670000000001</v>
+      <c r="AB7" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="AC7" s="43">
+        <v>9.4247799999999996E-4</v>
+      </c>
+      <c r="AD7" s="47">
+        <v>150</v>
+      </c>
+      <c r="AE7" s="38">
+        <f t="shared" ref="AE7" si="0">(AB7/(AC7*AA7)+2/(AD7*AC7))^-1</f>
+        <v>5.2509488571428564E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>138</v>
+        <v>29</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="I8" s="15">
         <v>19320</v>
@@ -1582,62 +1639,46 @@
       <c r="J8" s="15">
         <v>128</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>301</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" s="8">
-        <v>-73</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="Y8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="15">
-        <v>400</v>
-      </c>
-      <c r="AB8" s="22">
-        <v>0.76</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="AD8" s="16">
-        <f t="shared" si="0"/>
-        <v>5.2631578947368425</v>
-      </c>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="39"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="27"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I9" s="13">
         <v>300</v>
@@ -1645,49 +1686,72 @@
       <c r="J9" s="13">
         <v>900</v>
       </c>
-      <c r="K9" s="11">
-        <v>0</v>
+      <c r="K9" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7">
-        <f>SUM(T3:T8)</f>
-        <v>1340</v>
-      </c>
-      <c r="U9" s="7"/>
-      <c r="Y9" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="S9" s="7">
+        <f>S14</f>
+        <v>1340.8000000000002</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA9" s="30">
+        <v>130</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="AC9" s="38">
+        <v>3.0630000000000002E-3</v>
+      </c>
+      <c r="AD9" s="45">
+        <v>300</v>
+      </c>
+      <c r="AE9" s="38">
+        <f t="shared" ref="AE9" si="1">(AB9/(AC9*AA9)+2/(AD9*AC9))^-1</f>
+        <v>0.3916622950819672</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="27"/>
+      <c r="D10" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="35"/>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I10" s="13">
         <v>2200</v>
@@ -1699,127 +1763,174 @@
         <v>2</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD10" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="39"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="AA11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD11" s="38"/>
+      <c r="D11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="X11" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA11" s="41">
+        <v>130</v>
+      </c>
+      <c r="AB11" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="AC11" s="38">
+        <v>3.0630000000000002E-3</v>
+      </c>
+      <c r="AD11" s="45">
+        <v>300</v>
+      </c>
+      <c r="AE11" s="38">
+        <f t="shared" ref="AE11" si="2">(AB11/(AC11*AA11)+2/(AD11*AC11))^-1</f>
+        <v>0.41192068965517242</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="51"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="G12" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
-      <c r="Y12">
-        <v>2145.2800000000002</v>
-      </c>
-      <c r="Z12">
-        <v>4.8</v>
-      </c>
-      <c r="AA12" s="2">
-        <f>Y12/Z12</f>
-        <v>446.93333333333339</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="2">
-        <f xml:space="preserve"> AA12*AB12</f>
-        <v>1340.8000000000002</v>
-      </c>
-      <c r="AD12" s="38"/>
+      <c r="D12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="G12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="39"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="27"/>
+      <c r="D13" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="35"/>
       <c r="G13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T13" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA13" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="AB13" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="AC13" s="43">
+        <v>9.4247799999999996E-4</v>
+      </c>
+      <c r="AD13" s="47">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="38">
+        <f t="shared" ref="AE13" si="3">(AB13/(AC13*AA13)+2/(AD13*AC13))^-1</f>
+        <v>1.7453296296296294E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="G14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="38"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="G14" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I14" s="3">
         <v>0.1</v>
@@ -1831,33 +1942,58 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="38"/>
+        <v>85</v>
+      </c>
+      <c r="O14">
+        <v>2145.2800000000002</v>
+      </c>
+      <c r="P14">
+        <v>4.8</v>
+      </c>
+      <c r="Q14" s="23">
+        <f>O14/P14</f>
+        <v>446.93333333333339</v>
+      </c>
+      <c r="R14" s="23">
+        <v>3</v>
+      </c>
+      <c r="S14" s="23">
+        <f xml:space="preserve"> Q14*R14</f>
+        <v>1340.8000000000002</v>
+      </c>
+      <c r="T14" s="23">
+        <f>SUM(S3:S8)</f>
+        <v>1340</v>
+      </c>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="39"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="35"/>
       <c r="G15" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I15" s="3">
         <v>0.84</v>
@@ -1869,33 +2005,52 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="X15" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA15" s="41">
+        <v>400</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>0.76</v>
+      </c>
+      <c r="AC15" s="38">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AD15" s="45">
+        <v>800</v>
+      </c>
+      <c r="AE15" s="38">
+        <f t="shared" ref="AE15" si="4">(AB15/(AC15*AA15)+2/(AD15*AC15))^-1</f>
+        <v>0.40909090909090906</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="35"/>
       <c r="G16" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1907,33 +2062,37 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
+        <v>86</v>
+      </c>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="39"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="27"/>
+        <v>138</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="35"/>
       <c r="G17" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2">
         <v>0.02</v>
@@ -1942,162 +2101,243 @@
         <v>0.25</v>
       </c>
       <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="26"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="G18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K18" s="2">
         <v>0.98</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="40"/>
+      <c r="L18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="26"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="G18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="G19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="3">
         <v>0.61</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="3">
         <v>0.36</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="40"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.08</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="40"/>
+        <v>83</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="G20" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.84</v>
+        <v>73</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0.8</v>
       </c>
       <c r="J20" s="3">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="G21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="2">
         <v>0.85</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J22" s="2">
         <v>0.2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>92</v>
+      <c r="L22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P5:Q5"/>
+  <mergeCells count="88">
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B14:B18"/>
@@ -2114,30 +2354,23 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="X1:AE1"/>
     <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="U3" r:id="rId1" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>
-    <hyperlink ref="U6" r:id="rId2" xr:uid="{E45BDACC-B465-4438-959F-291A6606DD20}"/>
-    <hyperlink ref="M8" r:id="rId3" xr:uid="{EA9EDFC4-F8CA-4D25-81D8-0722CEC3E08B}"/>
+    <hyperlink ref="T3" r:id="rId1" display="https://www.cubesatshop.com/product/helios-deployable-antenna/" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>
+    <hyperlink ref="T6" r:id="rId2" display="https://www.cubesatshop.com/product/isis-on-board-computer/" xr:uid="{E45BDACC-B465-4438-959F-291A6606DD20}"/>
+    <hyperlink ref="M8" r:id="rId3" display="http://www.matweb.com/search/datasheet.aspx?matguid=d2a2119a08904a0fa706e9408cddb88e&amp;ckck=1" xr:uid="{EA9EDFC4-F8CA-4D25-81D8-0722CEC3E08B}"/>
     <hyperlink ref="M5" r:id="rId4" display="http://www.matweb.com/search/DataSheet.aspx?MatGUID=b8d536e0b9b54bd7b69e4124d8f1d20a&amp;ckck=1" xr:uid="{88352AE0-60BD-40C1-80F4-34894B81EA41}"/>
-    <hyperlink ref="M17" r:id="rId5" xr:uid="{39AFD78C-DE6C-423C-A032-1C20451C5059}"/>
+    <hyperlink ref="M17" r:id="rId5" display="https://www.edmundoptics.es/f/off-axis-parabolic-mirrors-with-alignment-through-holes/39501/ + \cite{Martinez}" xr:uid="{39AFD78C-DE6C-423C-A032-1C20451C5059}"/>
+    <hyperlink ref="T5" r:id="rId6" display="https://www.cubesatshop.com/product/isis-magnetorquer-board/" xr:uid="{5650DFCF-8EAA-43CE-A245-E1A5E6F78C21}"/>
+    <hyperlink ref="M18" r:id="rId7" display="https://www.edmundoptics.es/f/off-axis-parabolic-mirrors-with-alignment-through-holes/39501/ + \cite{Martinez}" xr:uid="{20011C20-F3C7-420A-88A1-7B01284446DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3DD554-71E1-46E6-BD19-15525D3E138F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459D3EC-4C95-44E2-8DA6-CBF360847A2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,9 +417,6 @@
     <t>Tubos de aluminio que soportan el segundo espejo del telescopio, $\phi_{ext}$ 20 mm,  $\phi_{int}$ 10 mm</t>
   </si>
   <si>
-    <t>Tubo cuadrado de 30x30 mm</t>
-  </si>
-  <si>
     <t>Soporte de aluminio entre el módulo del detector y el cono</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>Paneles solares</t>
+  </si>
+  <si>
+    <t>Tubo cuadrado de 15x15 mm</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -680,9 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,79 +723,89 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T9"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,55 +1192,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="P1" s="33" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="42"/>
+      <c r="P1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="34"/>
-      <c r="X1" s="27" t="s">
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="45"/>
+      <c r="X1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="14"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="13"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="3" t="s">
         <v>53</v>
       </c>
@@ -1244,10 +1253,10 @@
         <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>54</v>
@@ -1255,10 +1264,10 @@
       <c r="M2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="29"/>
+      <c r="Q2" s="42"/>
       <c r="R2" s="8" t="s">
         <v>102</v>
       </c>
@@ -1271,51 +1280,52 @@
       <c r="X2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AA2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="AD2" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AD2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE2" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>1200</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>1600</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.2</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1331,13 +1341,13 @@
         <v>94</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S3" s="30">
         <v>10</v>
       </c>
-      <c r="T3" s="37" t="s">
-        <v>150</v>
+      <c r="T3" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="X3" s="30" t="s">
         <v>10</v>
@@ -1345,49 +1355,51 @@
       <c r="Y3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="21" t="s">
         <v>124</v>
       </c>
       <c r="AA3" s="30">
         <v>400</v>
       </c>
       <c r="AB3" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="AC3" s="38">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="AD3" s="45">
-        <v>1000</v>
-      </c>
-      <c r="AE3" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="AC3" s="34">
+        <f>0.0009/4</f>
+        <v>2.2499999999999999E-4</v>
+      </c>
+      <c r="AD3" s="38">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="34">
         <f>(AB3/(AC3*AA3)+2/(AD3*AC3))^-1</f>
-        <v>0.4</v>
+        <v>1.0843373493975905E-2</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>2810</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>960</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>130</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1401,31 +1413,32 @@
         <v>95</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
       <c r="X4" s="31"/>
       <c r="Y4" s="31"/>
-      <c r="Z4" s="22" t="s">
-        <v>127</v>
+      <c r="Z4" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AA4" s="31"/>
       <c r="AB4" s="31"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="39"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="35"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="1" t="s">
         <v>105</v>
       </c>
@@ -1444,21 +1457,21 @@
       <c r="L5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="P5" s="27" t="s">
+      <c r="M5" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="29"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S5" s="7">
         <v>100</v>
       </c>
-      <c r="T5" s="10" t="s">
-        <v>151</v>
+      <c r="T5" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="X5" s="30" t="s">
         <v>18</v>
@@ -1466,51 +1479,52 @@
       <c r="Y5" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="Z5" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA5" s="41">
+      <c r="Z5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA5" s="28">
         <v>130</v>
       </c>
-      <c r="AB5" s="41">
+      <c r="AB5" s="28">
         <v>0.75</v>
       </c>
-      <c r="AC5" s="43">
+      <c r="AC5" s="32">
         <v>9.4247799999999996E-4</v>
       </c>
-      <c r="AD5" s="47">
+      <c r="AD5" s="36">
         <v>300</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AE5" s="34">
         <f>(AB5/(AC5*AA5)+2/(AD5*AC5))^-1</f>
         <v>7.5786890721649472E-2</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>8260</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>420</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>118</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1519,40 +1533,41 @@
       <c r="M6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="Q6" s="29"/>
+      <c r="Q6" s="42"/>
       <c r="R6" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S6" s="7">
         <v>400</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>153</v>
+      <c r="T6" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
-      <c r="Z6" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="39"/>
+      <c r="Z6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="35"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="1" t="s">
         <v>112</v>
       </c>
@@ -1565,7 +1580,7 @@
       <c r="J7" s="2">
         <v>1000</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1581,13 +1596,13 @@
         <v>68</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S7" s="30">
         <v>830</v>
       </c>
       <c r="T7" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X7" s="30" t="s">
         <v>119</v>
@@ -1595,58 +1610,59 @@
       <c r="Y7" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="22" t="s">
+      <c r="Z7" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="AA7" s="41">
+      <c r="AA7" s="28">
         <v>130</v>
       </c>
-      <c r="AB7" s="41">
+      <c r="AB7" s="28">
         <v>0.6</v>
       </c>
-      <c r="AC7" s="43">
+      <c r="AC7" s="32">
         <v>9.4247799999999996E-4</v>
       </c>
-      <c r="AD7" s="47">
+      <c r="AD7" s="36">
         <v>150</v>
       </c>
-      <c r="AE7" s="38">
+      <c r="AE7" s="34">
         <f t="shared" ref="AE7" si="0">(AB7/(AC7*AA7)+2/(AD7*AC7))^-1</f>
         <v>5.2509488571428564E-2</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="35" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>19320</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>128</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>301</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>155</v>
+      <c r="M8" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
@@ -1655,39 +1671,40 @@
       <c r="T8" s="31"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
-      <c r="Z8" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="39"/>
+      <c r="Z8" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="35"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="9" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="16" t="s">
         <v>31</v>
       </c>
+      <c r="F9" s="27"/>
       <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>300</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>900</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>157</v>
+      <c r="K9" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>49</v>
@@ -1695,19 +1712,19 @@
       <c r="M9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P9" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="23" t="s">
-        <v>144</v>
+      <c r="P9" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="S9" s="7">
         <f>S14</f>
         <v>1340.8000000000002</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X9" s="30" t="s">
         <v>116</v>
@@ -1715,7 +1732,7 @@
       <c r="Y9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="22" t="s">
+      <c r="Z9" s="21" t="s">
         <v>122</v>
       </c>
       <c r="AA9" s="30">
@@ -1724,42 +1741,43 @@
       <c r="AB9" s="30">
         <v>0.15</v>
       </c>
-      <c r="AC9" s="38">
+      <c r="AC9" s="34">
         <v>3.0630000000000002E-3</v>
       </c>
-      <c r="AD9" s="45">
+      <c r="AD9" s="38">
         <v>300</v>
       </c>
-      <c r="AE9" s="38">
+      <c r="AE9" s="34">
         <f t="shared" ref="AE9" si="1">(AB9/(AC9*AA9)+2/(AD9*AC9))^-1</f>
         <v>0.3916622950819672</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>2200</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <v>700</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>2</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -1770,91 +1788,94 @@
       </c>
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
-      <c r="Z10" s="22" t="s">
-        <v>130</v>
+      <c r="Z10" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="AA10" s="31"/>
       <c r="AB10" s="31"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="39"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="35"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="27"/>
       <c r="X11" s="30" t="s">
         <v>117</v>
       </c>
       <c r="Y11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="22" t="s">
+      <c r="Z11" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AA11" s="41">
+      <c r="AA11" s="28">
         <v>130</v>
       </c>
-      <c r="AB11" s="41">
+      <c r="AB11" s="28">
         <v>0.1</v>
       </c>
-      <c r="AC11" s="38">
+      <c r="AC11" s="34">
         <v>3.0630000000000002E-3</v>
       </c>
-      <c r="AD11" s="45">
+      <c r="AD11" s="38">
         <v>300</v>
       </c>
-      <c r="AE11" s="38">
+      <c r="AE11" s="34">
         <f t="shared" ref="AE11" si="2">(AB11/(AC11*AA11)+2/(AD11*AC11))^-1</f>
         <v>0.41192068965517242</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="G12" s="27" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="42"/>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
-      <c r="Z12" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="39"/>
+      <c r="Z12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="35"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="3" t="s">
         <v>53</v>
       </c>
@@ -1883,19 +1904,19 @@
         <v>120</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T13" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="X13" s="41" t="s">
+      <c r="T13" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="Y13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Z13" s="17" t="s">
-        <v>134</v>
+      <c r="Z13" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="AA13" s="30">
         <v>0.2</v>
@@ -1903,29 +1924,30 @@
       <c r="AB13" s="30">
         <v>0.1</v>
       </c>
-      <c r="AC13" s="43">
+      <c r="AC13" s="32">
         <v>9.4247799999999996E-4</v>
       </c>
-      <c r="AD13" s="47">
+      <c r="AD13" s="36">
         <v>50</v>
       </c>
-      <c r="AE13" s="38">
+      <c r="AE13" s="34">
         <f t="shared" ref="AE13" si="3">(AB13/(AC13*AA13)+2/(AD13*AC13))^-1</f>
         <v>1.7453296296296294E-3</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="35"/>
+      <c r="D14" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="4" t="s">
         <v>62</v>
       </c>
@@ -1953,42 +1975,43 @@
       <c r="P14">
         <v>4.8</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="22">
         <f>O14/P14</f>
         <v>446.93333333333339</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="22">
         <v>3</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="22">
         <f xml:space="preserve"> Q14*R14</f>
         <v>1340.8000000000002</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="22">
         <f>SUM(S3:S8)</f>
         <v>1340</v>
       </c>
-      <c r="X14" s="42"/>
+      <c r="X14" s="29"/>
       <c r="Y14" s="31"/>
-      <c r="Z14" s="22" t="s">
-        <v>129</v>
+      <c r="Z14" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="AA14" s="31"/>
       <c r="AB14" s="31"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="39"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="35"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="4" t="s">
         <v>65</v>
       </c>
@@ -2016,36 +2039,37 @@
       <c r="Y15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="22" t="s">
+      <c r="Z15" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AA15" s="41">
+      <c r="AA15" s="28">
         <v>400</v>
       </c>
       <c r="AB15" s="30">
         <v>0.76</v>
       </c>
-      <c r="AC15" s="38">
+      <c r="AC15" s="34">
         <v>1.8E-3</v>
       </c>
-      <c r="AD15" s="45">
+      <c r="AD15" s="38">
         <v>800</v>
       </c>
-      <c r="AE15" s="38">
+      <c r="AE15" s="34">
         <f t="shared" ref="AE15" si="4">(AB15/(AC15*AA15)+2/(AD15*AC15))^-1</f>
         <v>0.40909090909090906</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="35"/>
+      <c r="D16" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
@@ -2069,25 +2093,26 @@
       </c>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
-      <c r="Z16" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA16" s="42"/>
+      <c r="Z16" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA16" s="29"/>
       <c r="AB16" s="31"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="39"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="35"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="35"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="1" t="s">
         <v>109</v>
       </c>
@@ -2104,32 +2129,33 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="26"/>
+        <v>158</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="25"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="1" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="50"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>108</v>
@@ -2144,32 +2170,33 @@
         <v>0.98</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="26"/>
+        <v>159</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="25"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="4" t="s">
         <v>71</v>
       </c>
@@ -2193,22 +2220,23 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>0.8</v>
       </c>
       <c r="J20" s="3">
@@ -2225,6 +2253,12 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="4" t="s">
         <v>74</v>
       </c>
@@ -2248,6 +2282,12 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="1" t="s">
         <v>77</v>
       </c>
@@ -2269,50 +2309,31 @@
       <c r="M22" s="1" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="X5:X6"/>
@@ -2322,22 +2343,7 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="AE7:AE8"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B14:B18"/>
@@ -2354,12 +2360,62 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="AB13:AB14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T3" r:id="rId1" display="https://www.cubesatshop.com/product/helios-deployable-antenna/" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>

--- a/ESATAN/Tablas.xlsx
+++ b/ESATAN/Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Andres\1_Universidad\MUSE\TCCT\Trabajos_TCCT\ESATAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6936D-DCDA-4A8F-8291-85DA131BDB5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8612277A-0BC3-40EA-9710-296193A977DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -806,60 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,12 +816,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,56 +850,110 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,74 +963,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1056,7 +982,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C8C8C8"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1313,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17:AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,60 +1274,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63" t="s">
         <v>176</v>
       </c>
       <c r="G1" s="15"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
-      <c r="Q1" s="28" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="50"/>
+      <c r="Q1" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
-      <c r="Y1" s="17" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Y1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="19"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="50"/>
       <c r="AG1" s="9"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="63" t="s">
         <v>177</v>
       </c>
       <c r="G2" s="15"/>
@@ -1426,10 +1352,10 @@
       <c r="N2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="19"/>
+      <c r="R2" s="50"/>
       <c r="S2" s="8" t="s">
         <v>101</v>
       </c>
@@ -1465,41 +1391,41 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="67" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="63" t="s">
         <v>178</v>
       </c>
       <c r="G3" s="15"/>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="23">
         <v>1200</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="23">
         <v>1600</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="24">
         <v>0.2</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="39" t="s">
         <v>87</v>
       </c>
       <c r="R3" s="7" t="s">
@@ -1508,344 +1434,344 @@
       <c r="S3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="39">
         <v>5</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="39" t="s">
         <v>11</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="39">
         <v>400</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="39">
         <v>0.3</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="43">
         <f>0.0009/4</f>
         <v>2.2499999999999999E-4</v>
       </c>
-      <c r="AE3" s="24">
+      <c r="AE3" s="47">
         <v>100</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="43">
         <f>(AC3/(AD3*AB3)+2/(AE3*AD3))^-1</f>
         <v>1.0843373493975905E-2</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="67" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="63" t="s">
         <v>179</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="23">
         <v>2810</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="23">
         <v>960</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="24">
         <v>130</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="40"/>
       <c r="R4" s="7" t="s">
         <v>94</v>
       </c>
       <c r="S4" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="40"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="55"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
       <c r="AA4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="23"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="44"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="63" t="s">
         <v>180</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="26">
         <v>2700</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="26">
         <v>896</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="26">
         <v>167</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="19"/>
+      <c r="R5" s="50"/>
       <c r="S5" s="13" t="s">
         <v>146</v>
       </c>
       <c r="T5" s="13">
         <v>50</v>
       </c>
-      <c r="U5" s="41" t="s">
+      <c r="U5" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="Z5" s="39" t="s">
         <v>117</v>
       </c>
       <c r="AA5" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AB5" s="26">
+      <c r="AB5" s="37">
         <v>130</v>
       </c>
-      <c r="AC5" s="26">
+      <c r="AC5" s="37">
         <v>0.75</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="41">
         <v>9.4247799999999996E-4</v>
       </c>
-      <c r="AE5" s="33">
+      <c r="AE5" s="45">
         <v>300</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AF5" s="43">
         <f>(AC5/(AD5*AB5)+2/(AE5*AD5))^-1</f>
         <v>7.5786890721649472E-2</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="63" t="s">
         <v>181</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="23">
         <v>8260</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="23">
         <v>420</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="24">
         <v>118</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="19"/>
+      <c r="R6" s="50"/>
       <c r="S6" s="13" t="s">
         <v>143</v>
       </c>
       <c r="T6" s="13">
         <v>100</v>
       </c>
-      <c r="U6" s="41" t="s">
+      <c r="U6" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
       <c r="AA6" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="23"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="44"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="68" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="63" t="s">
         <v>182</v>
       </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="26">
         <v>5300</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="26">
         <v>1000</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="28">
         <v>55</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="N7" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="18" t="s">
         <v>67</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="35" t="s">
+      <c r="T7" s="17" t="s">
         <v>174</v>
       </c>
       <c r="U7" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="Z7" s="39" t="s">
         <v>117</v>
       </c>
       <c r="AA7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AB7" s="37">
         <v>130</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AC7" s="37">
         <v>0.6</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AD7" s="41">
         <v>9.4247799999999996E-4</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="45">
         <v>150</v>
       </c>
-      <c r="AF7" s="22">
+      <c r="AF7" s="43">
         <f t="shared" ref="AF7" si="0">(AC7/(AD7*AB7)+2/(AE7*AD7))^-1</f>
         <v>5.2509488571428564E-2</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="59" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="63" t="s">
         <v>183</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="31">
         <v>19320</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="31">
         <v>128</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="32">
         <v>301</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="36" t="s">
+      <c r="Q8" s="40"/>
+      <c r="R8" s="18" t="s">
         <v>94</v>
       </c>
       <c r="S8" s="13" t="s">
@@ -1854,136 +1780,136 @@
       <c r="T8" s="16">
         <v>100</v>
       </c>
-      <c r="U8" s="41" t="s">
+      <c r="U8" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
       <c r="AA8" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="23"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="44"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="67" t="s">
+      <c r="E9" s="65"/>
+      <c r="F9" s="63" t="s">
         <v>184</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="23">
         <v>300</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="23">
         <v>900</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="R9" s="60"/>
-      <c r="S9" s="63" t="s">
+      <c r="R9" s="36"/>
+      <c r="S9" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="T9" s="63">
+      <c r="T9" s="35">
         <f>T10-T3-T5-T6-T8</f>
         <v>1085.8000000000002</v>
       </c>
-      <c r="U9" s="63" t="s">
+      <c r="U9" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="Z9" s="39" t="s">
         <v>2</v>
       </c>
       <c r="AA9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="AB9" s="39">
         <v>130</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AC9" s="39">
         <v>0.15</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AD9" s="43">
         <v>3.0630000000000002E-3</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="47">
         <v>300</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AF9" s="43">
         <f t="shared" ref="AF9" si="1">(AC9/(AD9*AB9)+2/(AE9*AD9))^-1</f>
         <v>0.3916622950819672</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="67" t="s">
+      <c r="E10" s="65"/>
+      <c r="F10" s="63" t="s">
         <v>185</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="23">
         <v>2200</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="23">
         <v>700</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="24">
         <v>2</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="R10" s="19"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="13" t="s">
         <v>141</v>
       </c>
@@ -1994,133 +1920,133 @@
       <c r="U10" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
       <c r="AA10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="23"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="44"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="67" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="63" t="s">
         <v>186</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="Y11" s="20" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="Y11" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="Z11" s="39" t="s">
         <v>2</v>
       </c>
       <c r="AA11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AB11" s="26">
+      <c r="AB11" s="37">
         <v>130</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AC11" s="37">
         <v>0.1</v>
       </c>
-      <c r="AD11" s="22">
+      <c r="AD11" s="43">
         <v>3.0630000000000002E-3</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11" s="47">
         <v>300</v>
       </c>
-      <c r="AF11" s="22">
+      <c r="AF11" s="43">
         <f t="shared" ref="AF11" si="2">(AC11/(AD11*AB11)+2/(AE11*AD11))^-1</f>
         <v>0.41192068965517242</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="67" t="s">
+      <c r="E12" s="65"/>
+      <c r="F12" s="63" t="s">
         <v>187</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="59"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="23"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="44"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="67" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="63" t="s">
         <v>188</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="M13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="23" t="s">
         <v>54</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -2135,65 +2061,65 @@
       <c r="U13" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="Y13" s="26" t="s">
+      <c r="Y13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="Z13" s="39" t="s">
         <v>4</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AB13" s="20">
+      <c r="AB13" s="39">
         <v>0.2</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AC13" s="39">
         <v>0.1</v>
       </c>
-      <c r="AD13" s="31">
+      <c r="AD13" s="41">
         <v>9.4247799999999996E-4</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AE13" s="45">
         <v>50</v>
       </c>
-      <c r="AF13" s="22">
+      <c r="AF13" s="43">
         <f t="shared" ref="AF13" si="3">(AC13/(AD13*AB13)+2/(AE13*AD13))^-1</f>
         <v>1.7453296296296294E-3</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="67" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="63" t="s">
         <v>189</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="23">
         <v>0.1</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="23">
         <v>0.5</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="23">
         <v>0</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="22" t="s">
         <v>84</v>
       </c>
       <c r="P14">
@@ -2217,317 +2143,317 @@
         <f>SUM(T3:T8)</f>
         <v>255</v>
       </c>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="21"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="40"/>
       <c r="AA14" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="23"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="44"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="67" t="s">
+      <c r="E15" s="65"/>
+      <c r="F15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="23">
         <v>0.84</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="23">
         <v>0.97</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="23">
         <v>0</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="Y15" s="20" t="s">
+      <c r="Y15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="Z15" s="39" t="s">
         <v>4</v>
       </c>
       <c r="AA15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AB15" s="26">
+      <c r="AB15" s="37">
         <v>400</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AC15" s="39">
         <v>0.76</v>
       </c>
-      <c r="AD15" s="22">
+      <c r="AD15" s="43">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="AE15" s="24">
+      <c r="AE15" s="47">
         <v>800</v>
       </c>
-      <c r="AF15" s="22">
+      <c r="AF15" s="43">
         <f t="shared" ref="AF15:AF17" si="4">(AC15/(AD15*AB15)+2/(AE15*AD15))^-1</f>
         <v>0.81818181818181812</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="67" t="s">
+      <c r="E16" s="65"/>
+      <c r="F16" s="63" t="s">
         <v>191</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="23">
         <v>1</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="23">
         <v>0</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="23">
         <v>0</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
       <c r="AA16" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="23"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="44"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="63" t="s">
+      <c r="E17" s="67"/>
+      <c r="F17" s="14" t="s">
         <v>192</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="26">
         <v>0.02</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="26">
         <v>0.25</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="26">
         <v>0</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="N17" s="47" t="s">
+      <c r="N17" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="Y17" s="58" t="s">
+      <c r="Y17" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="Z17" s="58" t="s">
+      <c r="Z17" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="AA17" s="59" t="s">
+      <c r="AA17" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AB17" s="60">
+      <c r="AB17" s="68">
         <v>400</v>
       </c>
-      <c r="AC17" s="60">
+      <c r="AC17" s="68">
         <v>1E-3</v>
       </c>
-      <c r="AD17" s="61">
+      <c r="AD17" s="69">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AE17" s="60">
+      <c r="AE17" s="68">
         <v>1000</v>
       </c>
-      <c r="AF17" s="62">
+      <c r="AF17" s="70">
         <f t="shared" si="4"/>
         <v>9.9875156054931344E-2</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="67" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="45" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="26">
         <v>0.02</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="26">
         <v>0.25</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="26">
         <v>0.98</v>
       </c>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="N18" s="47" t="s">
+      <c r="N18" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="59" t="s">
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="62"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="70"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="67" t="s">
+      <c r="E19" s="65"/>
+      <c r="F19" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="42" t="s">
+      <c r="G19" s="19"/>
+      <c r="H19" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="23">
         <v>0.61</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="23">
         <v>0.36</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="23">
         <v>0</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="64" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="60" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="42" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="23">
         <v>0.8</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="23">
         <v>0.08</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="23">
         <v>0</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="64" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="63">
+      <c r="D21" s="62"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="14">
         <v>2</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="12" t="s">
         <v>73</v>
       </c>
@@ -2551,17 +2477,17 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="64" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="63">
+      <c r="D22" s="62"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="14">
         <v>3</v>
       </c>
-      <c r="G22" s="38"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="1" t="s">
         <v>76</v>
       </c>
@@ -2585,135 +2511,51 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="64" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="63">
+      <c r="D23" s="62"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="14">
         <v>4</v>
       </c>
-      <c r="G23" s="38"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="67" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="63" t="s">
         <v>195</v>
       </c>
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="72"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="67" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="63" t="s">
         <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="Q10:R10"/>
@@ -2729,6 +2571,90 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AE18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U3" r:id="rId1" display="https://www.cubesatshop.com/product/helios-deployable-antenna/" xr:uid="{E3F57401-9EA4-48D0-A569-49C5485F2DEF}"/>
